--- a/Bug_rep.xlsx
+++ b/Bug_rep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -56,6 +56,49 @@
   </si>
   <si>
     <t xml:space="preserve">На всех страницах в подвале некликабельные иконки социальных сетей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыта страница http://158.160.56.133/app/about;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на иконку любой соцсети в правом нижнем углу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу соответствующей соцсети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу соответствующей соцсети не произошел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баг воспроизводится на
+всех страницах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На страница «О нас» нет информации о животных кроме собак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыта страница с информацией о ресурсе и содержащихся питомцах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыта страница с информацией о ресурсе и содержащихся собаках. Нет упоминания других животных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На страницах "О нас", "Контакты", "Информация о животном" не работает поле поиска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ввести в поле поиска слово "Кошка"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображены карточки со всеми кошками из каталога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система никак не отреагировала на запрос</t>
   </si>
   <si>
     <r>
@@ -63,70 +106,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Открыта страница </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/about</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Нажать на иконку любой соцсети в правом нижнем углу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход на страницу соответствующей соцсети</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ничего не произошло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баг воспроизводится на
-всех страницах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На страница «О нас» нет информации о животных кроме собак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыта страница с информацией о ресурсе и содержащихся питомцах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыта страница с информацией о ресурсе и содержащихся собаках. Нет упоминания других животных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На страницах "О нас", "Контакты", "Информация о животном" не работает поле поиска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ввести в поле поиска слово "Кошка"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отображены карточки со всеми кошками из каталога</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Баг воспроизводится страницах: </t>
     </r>
@@ -136,6 +116,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">http://158.160.56.133/app/about</t>
     </r>
@@ -144,6 +125,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">; </t>
     </r>
@@ -153,14 +135,16 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/about</t>
+      <t xml:space="preserve">http://158.160.56.133/app/pets</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">; и на всех страницах с информацией о животных, e.g.: </t>
     </r>
@@ -170,6 +154,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd</t>
     </r>
@@ -181,31 +166,7 @@
     <t xml:space="preserve">В форме поиска животного в поле «Вид животного» некорректный выпадающий список</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Открыта страница </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/pets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
+    <t xml:space="preserve">Открыта страница http://158.160.56.133/app/pets;</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на выпадающий список поля «Вид животного»</t>
@@ -384,9 +345,6 @@
   </si>
   <si>
     <t xml:space="preserve">Баг воспроизводится на всех полях ввода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF-14</t>
   </si>
 </sst>
 </file>
@@ -401,6 +359,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -422,6 +381,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -492,11 +452,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,24 +477,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K28"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.09"/>
   </cols>
   <sheetData>
@@ -582,7 +542,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -609,7 +569,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
@@ -623,7 +583,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -632,7 +592,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -642,169 +602,169 @@
         <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4" t="s">
-        <v>38</v>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
-        <v>44</v>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4" t="s">
-        <v>50</v>
+      <c r="K10" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4" t="s">
-        <v>56</v>
+      <c r="K11" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -812,78 +772,78 @@
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="4" t="s">
-        <v>67</v>
+      <c r="K13" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4" t="s">
-        <v>73</v>
+      <c r="K14" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -891,211 +851,54 @@
     </row>
     <row r="16" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="http://158.160.56.133/app/about"/>
-    <hyperlink ref="E5" r:id="rId2" display="http://158.160.56.133/app/about"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://158.160.56.133/app/about"/>
-    <hyperlink ref="E7" r:id="rId4" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K7" r:id="rId5" display="https://disk.yandex.com/i/NlX99QDtAcrP0Q"/>
-    <hyperlink ref="E8" r:id="rId6" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K8" r:id="rId7" display="https://disk.yandex.com/i/22_dsuQTHpmyOA"/>
-    <hyperlink ref="E9" r:id="rId8" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K9" r:id="rId9" display="https://disk.yandex.com/i/WYnPvGR1xT7kWQ"/>
-    <hyperlink ref="E10" r:id="rId10" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K10" r:id="rId11" display="https://disk.yandex.com/i/Byt_Yr63KtSGBQ"/>
-    <hyperlink ref="E11" r:id="rId12" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K11" r:id="rId13" display="https://disk.yandex.com/i/_Rv9_HPJWF460A"/>
-    <hyperlink ref="E12" r:id="rId14" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="E13" r:id="rId15" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K13" r:id="rId16" display="https://disk.yandex.com/i/g-vbwnLvdvd-yg"/>
-    <hyperlink ref="E14" r:id="rId17" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="K14" r:id="rId18" display="https://disk.yandex.com/i/wHs8GuyzITtKGQ"/>
-    <hyperlink ref="E15" r:id="rId19" display="http://158.160.56.133/app/pets"/>
-    <hyperlink ref="E16" r:id="rId20" display="http://158.160.56.133/app/pets"/>
+    <hyperlink ref="E4" r:id="rId1" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="E5" r:id="rId2" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="E6" r:id="rId3" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="J6" r:id="rId4" display="http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd"/>
+    <hyperlink ref="E7" r:id="rId5" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K7" r:id="rId6" display="https://disk.yandex.com/i/NlX99QDtAcrP0Q"/>
+    <hyperlink ref="E8" r:id="rId7" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K8" r:id="rId8" display="https://disk.yandex.com/i/22_dsuQTHpmyOA"/>
+    <hyperlink ref="E9" r:id="rId9" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K9" r:id="rId10" display="https://disk.yandex.com/i/WYnPvGR1xT7kWQ"/>
+    <hyperlink ref="E10" r:id="rId11" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K10" r:id="rId12" display="https://disk.yandex.com/i/Byt_Yr63KtSGBQ"/>
+    <hyperlink ref="E11" r:id="rId13" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K11" r:id="rId14" display="https://disk.yandex.com/i/_Rv9_HPJWF460A"/>
+    <hyperlink ref="E12" r:id="rId15" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="E13" r:id="rId16" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K13" r:id="rId17" display="https://disk.yandex.com/i/g-vbwnLvdvd-yg"/>
+    <hyperlink ref="E14" r:id="rId18" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K14" r:id="rId19" display="https://disk.yandex.com/i/wHs8GuyzITtKGQ"/>
+    <hyperlink ref="E15" r:id="rId20" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="E16" r:id="rId21" display="Открыта страница http://158.160.56.133/app/pets;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Bug_rep.xlsx
+++ b/Bug_rep.xlsx
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+  <si>
+    <t xml:space="preserve">Баг-репорты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проект: Дом питомца http://158.160.56.133/app/pets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата составления: 24.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автор: Герасимов А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серьезность выставлялась по системе: blocker, critical, high, low, trivial</t>
+  </si>
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -56,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">На всех страницах в подвале некликабельные иконки социальных сетей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
   </si>
   <si>
     <t xml:space="preserve">Открыта страница http://158.160.56.133/app/about;</t>
@@ -92,6 +110,9 @@
     <t xml:space="preserve">На страницах "О нас", "Контакты", "Информация о животном" не работает поле поиска</t>
   </si>
   <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Ввести в поле поиска слово "Кошка"</t>
   </si>
   <si>
@@ -101,63 +122,7 @@
     <t xml:space="preserve">Система никак не отреагировала на запрос</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Баг воспроизводится страницах: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/about</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/pets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">; и на всех страницах с информацией о животных, e.g.: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd</t>
-    </r>
+    <t xml:space="preserve">Баг воспроизводится страницах: http://158.160.56.133/app/about; http://158.160.56.133/app/pets; и на всех страницах с информацией о животных, e.g.: http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd</t>
   </si>
   <si>
     <t xml:space="preserve">PF-04</t>
@@ -309,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">В форме создания заявки при нажатии на кнопку "Да" непонятно, создана заявка или нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на фотографию любого животного со статусом "Без дома"
@@ -326,7 +294,7 @@
     <t xml:space="preserve">PF-13</t>
   </si>
   <si>
-    <t xml:space="preserve">В форме создания заявки при нажатии на кнопку "Да" не исчезаетвалидационное сообщение после замены невалидных данных валидными</t>
+    <t xml:space="preserve">В форме создания заявки при нажатии на кнопку "Да" не исчезает валидационное сообщение после замены невалидных данных валидными</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на фотографию любого животного со статусом "Без дома";
@@ -354,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -375,6 +343,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -439,9 +427,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -452,7 +452,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,13 +481,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K16"/>
+  <dimension ref="A3:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.82"/>
@@ -493,412 +497,485 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.09"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+      <c r="E22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="113.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="Открыта страница http://158.160.56.133/app/about;"/>
-    <hyperlink ref="E5" r:id="rId2" display="Открыта страница http://158.160.56.133/app/about;"/>
-    <hyperlink ref="E6" r:id="rId3" display="Открыта страница http://158.160.56.133/app/about;"/>
-    <hyperlink ref="J6" r:id="rId4" display="http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd"/>
-    <hyperlink ref="E7" r:id="rId5" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K7" r:id="rId6" display="https://disk.yandex.com/i/NlX99QDtAcrP0Q"/>
-    <hyperlink ref="E8" r:id="rId7" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K8" r:id="rId8" display="https://disk.yandex.com/i/22_dsuQTHpmyOA"/>
-    <hyperlink ref="E9" r:id="rId9" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K9" r:id="rId10" display="https://disk.yandex.com/i/WYnPvGR1xT7kWQ"/>
-    <hyperlink ref="E10" r:id="rId11" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K10" r:id="rId12" display="https://disk.yandex.com/i/Byt_Yr63KtSGBQ"/>
-    <hyperlink ref="E11" r:id="rId13" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K11" r:id="rId14" display="https://disk.yandex.com/i/_Rv9_HPJWF460A"/>
-    <hyperlink ref="E12" r:id="rId15" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="E13" r:id="rId16" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K13" r:id="rId17" display="https://disk.yandex.com/i/g-vbwnLvdvd-yg"/>
-    <hyperlink ref="E14" r:id="rId18" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="K14" r:id="rId19" display="https://disk.yandex.com/i/wHs8GuyzITtKGQ"/>
-    <hyperlink ref="E15" r:id="rId20" display="Открыта страница http://158.160.56.133/app/pets;"/>
-    <hyperlink ref="E16" r:id="rId21" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="E12" r:id="rId1" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="E13" r:id="rId2" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="E14" r:id="rId3" display="Открыта страница http://158.160.56.133/app/about;"/>
+    <hyperlink ref="J14" r:id="rId4" display="Баг воспроизводится страницах: http://158.160.56.133/app/about; http://158.160.56.133/app/pets; и на всех страницах с информацией о животных, e.g.: http://158.160.56.133/app/pets/1708750b-f0ce-47ac-b5fa-b24310d167fd"/>
+    <hyperlink ref="E15" r:id="rId5" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K15" r:id="rId6" display="https://disk.yandex.com/i/NlX99QDtAcrP0Q"/>
+    <hyperlink ref="E16" r:id="rId7" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K16" r:id="rId8" display="https://disk.yandex.com/i/22_dsuQTHpmyOA"/>
+    <hyperlink ref="E17" r:id="rId9" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K17" r:id="rId10" display="https://disk.yandex.com/i/WYnPvGR1xT7kWQ"/>
+    <hyperlink ref="E18" r:id="rId11" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K18" r:id="rId12" display="https://disk.yandex.com/i/Byt_Yr63KtSGBQ"/>
+    <hyperlink ref="E19" r:id="rId13" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K19" r:id="rId14" display="https://disk.yandex.com/i/_Rv9_HPJWF460A"/>
+    <hyperlink ref="E20" r:id="rId15" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="E21" r:id="rId16" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K21" r:id="rId17" display="https://disk.yandex.com/i/g-vbwnLvdvd-yg"/>
+    <hyperlink ref="E22" r:id="rId18" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="K22" r:id="rId19" display="https://disk.yandex.com/i/wHs8GuyzITtKGQ"/>
+    <hyperlink ref="E23" r:id="rId20" display="Открыта страница http://158.160.56.133/app/pets;"/>
+    <hyperlink ref="E24" r:id="rId21" display="Открыта страница http://158.160.56.133/app/pets;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
